--- a/semantic/hdt_indexation-corpus.xlsx
+++ b/semantic/hdt_indexation-corpus.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$U$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$U$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="136">
   <si>
     <t>auteur</t>
   </si>
@@ -62,7 +62,7 @@
     <t>date publi</t>
   </si>
   <si>
-    <t>querelle </t>
+    <t>querelle</t>
   </si>
   <si>
     <t>Réfutation d'un autre texte</t>
@@ -113,6 +113,132 @@
     <t>rousseau</t>
   </si>
   <si>
+    <t>anonyme</t>
+  </si>
+  <si>
+    <t>Affaire du Parlement de Paris</t>
+  </si>
+  <si>
+    <t>anonyme_affaire-parlement-paris_1541</t>
+  </si>
+  <si>
+    <t>théâtrophobe</t>
+  </si>
+  <si>
+    <t>Recit touchant la comédie. Jouée par les jésuites et leurs disciples en la ville de Lyon, au mois d’août de l’an 1607</t>
+  </si>
+  <si>
+    <t>anonyme_recit-comedie_1607</t>
+  </si>
+  <si>
+    <t>protestant</t>
+  </si>
+  <si>
+    <t>calviniste</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>lyon_1607</t>
+  </si>
+  <si>
+    <t>L’Honneur du théâtre</t>
+  </si>
+  <si>
+    <t>anonyme_honneur-theatre_1620</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>Aubignac, François Hédelin (1604-1676 ; abbé d')</t>
+  </si>
+  <si>
+    <t>Dissertation sur la condemnation des théâtres</t>
+  </si>
+  <si>
+    <t>aubignac_dissertation_1666</t>
+  </si>
+  <si>
+    <t>réformateur</t>
+  </si>
+  <si>
+    <t>1660s</t>
+  </si>
+  <si>
+    <t>Beaulieu, Mlle de.</t>
+  </si>
+  <si>
+    <t>La première atteinte contre ceux qui accusent les comédies / par une demoiselle françoise</t>
+  </si>
+  <si>
+    <t>beaulieu_premiere-atteinte_1603</t>
+  </si>
+  <si>
+    <t>Benoist, René (1521-1608)</t>
+  </si>
+  <si>
+    <t>Petit fragment catechistic</t>
+  </si>
+  <si>
+    <t>benoist_petit-fragment-catechistic_1579</t>
+  </si>
+  <si>
+    <t>Conti, Armand de Bourbon (1629-1666 ; prince de)</t>
+  </si>
+  <si>
+    <t>Traité de la comédie et des spectacles</t>
+  </si>
+  <si>
+    <t>conti_traite-de-la-comedie_1666</t>
+  </si>
+  <si>
+    <t>saint-sacrement</t>
+  </si>
+  <si>
+    <t>Gaule, André de (15..-16..)</t>
+  </si>
+  <si>
+    <t>Conviction Véritable du récit fabuleux. divulgué touchant la Représentation exhibée en face de toute la ville de Lyon, au Collège de la Compagnie de Jésus, le 7. d’août, de la présente, année 1607</t>
+  </si>
+  <si>
+    <t>gaule_conviction_1607</t>
+  </si>
+  <si>
+    <t>jésuite ?</t>
+  </si>
+  <si>
+    <t>oui SJ</t>
+  </si>
+  <si>
+    <t>Guillot Gorju</t>
+  </si>
+  <si>
+    <t>Apologie de Guillot-Gorju. Adressée à tous les beaux Esprits</t>
+  </si>
+  <si>
+    <t>guillot-gorju_apologie_1634</t>
+  </si>
+  <si>
+    <t>Le Marcant, Jean</t>
+  </si>
+  <si>
+    <t>La conduite du vrai chrétien</t>
+  </si>
+  <si>
+    <t>lemarcant_conduite-du-vrai-chretien_1694</t>
+  </si>
+  <si>
+    <t>Lefebvre de La Porte, Mathieu (15..-16..)</t>
+  </si>
+  <si>
+    <t>Prologue</t>
+  </si>
+  <si>
+    <t>la-porte_prologue_1607</t>
+  </si>
+  <si>
     <t>Lelevel, Henri</t>
   </si>
   <si>
@@ -122,16 +248,40 @@
     <t>oratorien</t>
   </si>
   <si>
-    <t>théâtrophobe</t>
-  </si>
-  <si>
     <t>non (Oratorien qlq années)</t>
   </si>
   <si>
     <t>caffaro</t>
   </si>
   <si>
-    <t>Ottonelli, Giovanni Domenigo</t>
+    <t>Lelevel, Henri (1655?-....)</t>
+  </si>
+  <si>
+    <t>Entretien sur ce qui forme l’honnête homme et le vrai savant</t>
+  </si>
+  <si>
+    <t>lelevel_entretiens-honnete-homme_1690</t>
+  </si>
+  <si>
+    <t>Nicole, Pierre (1625-1695)</t>
+  </si>
+  <si>
+    <t>Traité de la comédie</t>
+  </si>
+  <si>
+    <t>nicole_traite-de-la-comedie_1667</t>
+  </si>
+  <si>
+    <t>nicole_traite-de-la-comedie_1675</t>
+  </si>
+  <si>
+    <t>Lettre CII</t>
+  </si>
+  <si>
+    <t>nicole_lettre102_1675</t>
+  </si>
+  <si>
+    <t>Ottonelli, Giovanni Domenigo (1584-1620)</t>
   </si>
   <si>
     <t>Della cristiana moderazione del teatro. Detto la qualità delle Commedie</t>
@@ -143,9 +293,6 @@
     <t>jésuite</t>
   </si>
   <si>
-    <t>réformateur</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
@@ -161,150 +308,6 @@
     <t>Réfutation des Sentiments relâchés d'un nouveau théologien touchant la comédie</t>
   </si>
   <si>
-    <t>anonyme</t>
-  </si>
-  <si>
-    <t>Affaire du Parlement de Paris</t>
-  </si>
-  <si>
-    <t>anonyme_affaire-parlement-paris_1541</t>
-  </si>
-  <si>
-    <t>Recit touchant la comédie. Jouée par les jésuites et leurs disciples en la ville de Lyon, au mois d’août de l’an 1607</t>
-  </si>
-  <si>
-    <t>anonyme_recit-comedie_1607</t>
-  </si>
-  <si>
-    <t>protestant</t>
-  </si>
-  <si>
-    <t>calviniste</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>lyon_1607</t>
-  </si>
-  <si>
-    <t>L’Honneur du théâtre</t>
-  </si>
-  <si>
-    <t>anonyme_honneur-theatre_1620</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>Aubignac, François Hédelin</t>
-  </si>
-  <si>
-    <t>Dissertation sur la condemnation des théâtres</t>
-  </si>
-  <si>
-    <t>aubignac_dissertation_1666</t>
-  </si>
-  <si>
-    <t>1660s</t>
-  </si>
-  <si>
-    <t>Beaulieu, Mlle de.</t>
-  </si>
-  <si>
-    <t>La première atteinte contre ceux qui accusent les comédies / par une demoiselle françoise</t>
-  </si>
-  <si>
-    <t>beaulieu_premiere-atteinte_1603</t>
-  </si>
-  <si>
-    <t>Benoist, René</t>
-  </si>
-  <si>
-    <t>Petit fragment catechistic</t>
-  </si>
-  <si>
-    <t>benoist_petit-fragment-catechistic_1579</t>
-  </si>
-  <si>
-    <t>Conti, Armand de Bourbon</t>
-  </si>
-  <si>
-    <t>Traité de la comédie et des spectacles</t>
-  </si>
-  <si>
-    <t>conti_traite-de-la-comedie_1666</t>
-  </si>
-  <si>
-    <t>saint-sacrement</t>
-  </si>
-  <si>
-    <t>Gaule, André de</t>
-  </si>
-  <si>
-    <t>Conviction Véritable du récit fabuleux. divulgué touchant la Représentation exhibée en face de toute la ville de Lyon, au Collège de la Compagnie de Jésus, le 7. d’août, de la présente, année 1607</t>
-  </si>
-  <si>
-    <t>gaule_conviction_1607</t>
-  </si>
-  <si>
-    <t>jésuite ?</t>
-  </si>
-  <si>
-    <t>oui SJ</t>
-  </si>
-  <si>
-    <t>Guillot Gorju</t>
-  </si>
-  <si>
-    <t>Apologie de Guillot-Gorju. Adressée à tous les beaux Esprits</t>
-  </si>
-  <si>
-    <t>guillot-gorju_apologie_1634</t>
-  </si>
-  <si>
-    <t>Lefebvre de La Porte, Mathieu</t>
-  </si>
-  <si>
-    <t>Prologue</t>
-  </si>
-  <si>
-    <t>la-porte_prologue_1607</t>
-  </si>
-  <si>
-    <t>Entretien sur ce qui forme l’honnête homme et le vrai savant</t>
-  </si>
-  <si>
-    <t>lelevel_entretiens-honnete-homme_1690</t>
-  </si>
-  <si>
-    <t>Le Marcant, Jean</t>
-  </si>
-  <si>
-    <t>La conduite du vrai chrétien</t>
-  </si>
-  <si>
-    <t>lemarcant_conduite-du-vrai-chretien_1694</t>
-  </si>
-  <si>
-    <t>Nicole, Pierre</t>
-  </si>
-  <si>
-    <t>Traité de la comédie</t>
-  </si>
-  <si>
-    <t>nicole_traite-de-la-comedie_1667</t>
-  </si>
-  <si>
-    <t>nicole_traite-de-la-comedie_1675</t>
-  </si>
-  <si>
-    <t>Lettre CII</t>
-  </si>
-  <si>
-    <t>nicole_lettre102_1675</t>
-  </si>
-  <si>
     <t>Décision faite en Sorbonne touchant la Comédie, avec une réfutation des Sentiments relachés d’un nouveau Théologien, sur le même sujet</t>
   </si>
   <si>
@@ -314,7 +317,7 @@
     <t>pegurier_refutation-des-sentiments-relaches_1694</t>
   </si>
   <si>
-    <t>Rousseau, Jean-Baptiste-Louis-Jacques</t>
+    <t>Rousseau, Jean-Baptiste-Louis-Jacques (1780-1831)</t>
   </si>
   <si>
     <t>Lettre de J. J. Rousseau à M. D'Alembert</t>
@@ -326,7 +329,7 @@
     <t>oui (de l'article "Genève")***</t>
   </si>
   <si>
-    <t>Saint-Évremond, Charles de Marguetel de Saint-Denis</t>
+    <t>Saint-Évremond, Charles de Marguetel de Saint-Denis (1613-1703 ; seigneur de)</t>
   </si>
   <si>
     <t>De la tragédie</t>
@@ -335,7 +338,7 @@
     <t>saint-evremond_de-la-tragedie_1692</t>
   </si>
   <si>
-    <t>Tilenus, Daniel</t>
+    <t>Tilenus, Daniel (1563-1633)</t>
   </si>
   <si>
     <t>Traité des Jeux comiques et tragiques</t>
@@ -344,7 +347,7 @@
     <t>tilenus_traite_1600</t>
   </si>
   <si>
-    <t>Vincent, Philippe</t>
+    <t>Vincent, Philippe (1600-1651) </t>
   </si>
   <si>
     <t>Traité des théâtres</t>
@@ -353,7 +356,7 @@
     <t>vincent_traite-des-theatres_1647</t>
   </si>
   <si>
-    <t>Voisin, abbé Joseph</t>
+    <t>Voisin, abbé Joseph (ca. 1610-1685)</t>
   </si>
   <si>
     <t>Défense du traité de Mgr le Prince de Conti touchant la comédie et les spectacles ou la réfutation d'un livre intitulé Dissertation sur la condamnation des théâtres</t>
@@ -362,34 +365,67 @@
     <t>voisin_defense_1671</t>
   </si>
   <si>
+    <t>Compte rendu du Monthly Review</t>
+  </si>
+  <si>
     <t>anon_compte-rendu-angl-conversation_1761</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
+    <t>Lettre d'un ecclésiastique à un de ses Amis</t>
+  </si>
+  <si>
     <t>anonyme_lettre-ecclesiastique_1671</t>
   </si>
   <si>
+    <t>Bardou, Pierre (1… -1724)</t>
+  </si>
+  <si>
+    <t>Epître sur la condemnation du théâtre</t>
+  </si>
+  <si>
     <t>bardou_epistre_1694</t>
   </si>
   <si>
+    <t>Bossuet, Jacques Bénigne (1627-1704)</t>
+  </si>
+  <si>
+    <t>Maximes et Réflections sur la Comédie</t>
+  </si>
+  <si>
     <t>bossuet_maximes_reflexions_comedie_1694</t>
   </si>
   <si>
+    <t>Dancourt, Louis Hurtaut (1725?-1801)</t>
+  </si>
+  <si>
+    <t>Dancourt à Rousseau</t>
+  </si>
+  <si>
     <t>dancourt_lettre-rousseau_1759</t>
   </si>
   <si>
+    <t>Gerbais, Jean (1629-1692)</t>
+  </si>
+  <si>
+    <t>Lettre d'un Docteur de Sorbonne à une personne de Qualité, sur le sujet de la Comédie</t>
+  </si>
+  <si>
     <t>gerbais_lettre_1694</t>
   </si>
   <si>
     <t>lelevel_reponse-a-la-lettre-d-un-theologien_1694</t>
   </si>
   <si>
+    <t>Montaigne, Michel de (1533-1592)</t>
+  </si>
+  <si>
+    <t>De l’institution des enfants</t>
+  </si>
+  <si>
     <t>montaigne_essais_1580</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
 </sst>
 </file>
@@ -399,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,15 +457,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,7 +468,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -458,6 +487,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -520,11 +555,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +592,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFE6E6E6"/>
       <rgbColor rgb="FFE6E6FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -600,20 +635,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -755,23 +786,23 @@
       <c r="B3" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>35</v>
+      <c r="H3" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>28</v>
@@ -786,13 +817,10 @@
         <v>29</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1694</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>1541</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>28</v>
@@ -800,46 +828,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1607</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1648</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>28</v>
@@ -850,46 +881,43 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>28</v>
+      <c r="L5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1649</v>
+        <v>1620</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>28</v>
@@ -900,21 +928,24 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -924,7 +955,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>28</v>
@@ -933,13 +964,13 @@
         <v>29</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1694</v>
+        <v>1666</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>28</v>
@@ -947,19 +978,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>27</v>
@@ -983,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>1541</v>
+        <v>1603</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>28</v>
@@ -994,28 +1025,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>54</v>
+      <c r="G8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>28</v>
@@ -1033,10 +1061,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>1607</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>1579</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>28</v>
@@ -1047,7 +1072,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>56</v>
@@ -1055,11 +1080,14 @@
       <c r="C9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>27</v>
@@ -1070,20 +1098,23 @@
       <c r="I9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>58</v>
+      <c r="J9" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>58</v>
+      <c r="L9" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>29</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>1620</v>
+        <v>1667</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>28</v>
@@ -1105,14 +1136,17 @@
       <c r="D10" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>28</v>
@@ -1121,7 +1155,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>28</v>
@@ -1130,13 +1164,13 @@
         <v>29</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>1666</v>
+        <v>1607</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>28</v>
@@ -1144,16 +1178,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>26</v>
@@ -1174,16 +1208,16 @@
         <v>28</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>1603</v>
+        <v>1634</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>28</v>
@@ -1191,27 +1225,28 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -1227,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>1579</v>
+        <v>1694</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>28</v>
@@ -1238,22 +1273,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>27</v>
@@ -1271,19 +1303,16 @@
         <v>28</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>29</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>1667</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>62</v>
+        <v>1607</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>28</v>
@@ -1296,44 +1325,41 @@
       <c r="B14" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1694</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>1607</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>27</v>
@@ -1352,11 +1378,11 @@
       <c r="C15" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>27</v>
@@ -1365,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>28</v>
@@ -1374,13 +1400,13 @@
         <v>28</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>1634</v>
+        <v>1690</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>28</v>
@@ -1402,8 +1428,11 @@
       <c r="D16" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>27</v>
@@ -1412,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>28</v>
@@ -1421,16 +1450,19 @@
         <v>28</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>1607</v>
+        <v>1667</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>28</v>
@@ -1438,17 +1470,20 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="0" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1509,10 @@
         <v>29</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>1690</v>
+        <v>1675</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>28</v>
@@ -1485,29 +1523,31 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>28</v>
+      <c r="G18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>28</v>
@@ -1522,7 +1562,10 @@
         <v>29</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>1694</v>
+        <v>1733</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>28</v>
@@ -1533,31 +1576,31 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>28</v>
@@ -1569,13 +1612,10 @@
         <v>28</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>1667</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>62</v>
+        <v>1648</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>28</v>
@@ -1586,31 +1626,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>28</v>
@@ -1622,13 +1662,10 @@
         <v>28</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1675</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>62</v>
+        <v>1649</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>28</v>
@@ -1639,31 +1676,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>28</v>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>28</v>
@@ -1678,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>28</v>
@@ -1692,13 +1723,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>24</v>
@@ -1731,7 +1762,7 @@
         <v>1694</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>28</v>
@@ -1742,13 +1773,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>24</v>
@@ -1787,15 +1818,15 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="0" t="s">
@@ -1826,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>28</v>
@@ -1834,16 +1865,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>27</v>
@@ -1878,16 +1909,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>34</v>
@@ -1925,16 +1956,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>34</v>
@@ -1972,13 +2003,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>24</v>
@@ -2011,7 +2042,7 @@
         <v>1671</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>27</v>
@@ -2021,59 +2052,240 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" s="0" t="s">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="C29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>116</v>
-      </c>
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>117</v>
-      </c>
+      <c r="A31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>118</v>
-      </c>
+      <c r="A32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>119</v>
-      </c>
+      <c r="A33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>120</v>
-      </c>
+      <c r="A34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>121</v>
-      </c>
+      <c r="A35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="A36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U36"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2081,6 +2293,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/semantic/hdt_indexation-corpus.xlsx
+++ b/semantic/hdt_indexation-corpus.xlsx
@@ -643,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
